--- a/May/Othes/Service chalan list.xlsx
+++ b/May/Othes/Service chalan list.xlsx
@@ -137,9 +137,8 @@
     <font>
       <sz val="33"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Bauhaus 93"/>
+      <family val="5"/>
     </font>
   </fonts>
   <fills count="2">
@@ -219,14 +218,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -240,10 +242,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -635,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F37" sqref="A1:G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -651,58 +650,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="37.5" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="24.95" customHeight="1" thickTop="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1037,40 +1036,40 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" s="5" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="10"/>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="9"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="F36" s="11" t="s">
+      <c r="B36" s="11"/>
+      <c r="F36" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="11"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="6"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="7"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" ht="30.95" customHeight="1"/>
     <row r="39" spans="1:7" ht="30" customHeight="1"/>
